--- a/page/eb11/s09/eb11-s09.xlsx
+++ b/page/eb11/s09/eb11-s09.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\LIB-DSC-FS\Peter Logan\eb-corpus\production\eb11\s09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8452C7F9-B7A0-4932-89D3-A415C535267D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D631CCA-5839-44D3-A278-48C89936FD3F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="5910" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="5820" windowWidth="23190" windowHeight="12075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s09" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="489">
   <si>
     <t>image-fn.jp2</t>
   </si>
@@ -817,6 +817,681 @@
   </si>
   <si>
     <t>Equations and table</t>
+  </si>
+  <si>
+    <t>mh</t>
+  </si>
+  <si>
+    <t>eb11-s09-0001</t>
+  </si>
+  <si>
+    <t>eb11-s09-0002</t>
+  </si>
+  <si>
+    <t>eb11-s09-0003</t>
+  </si>
+  <si>
+    <t>eb11-s09-0004</t>
+  </si>
+  <si>
+    <t>eb11-s09-0005</t>
+  </si>
+  <si>
+    <t>eb11-s09-0006</t>
+  </si>
+  <si>
+    <t>eb11-s09-0007</t>
+  </si>
+  <si>
+    <t>eb11-s09-0008</t>
+  </si>
+  <si>
+    <t>eb11-s09-0009</t>
+  </si>
+  <si>
+    <t>eb11-s09-0010</t>
+  </si>
+  <si>
+    <t>eb11-s09-0011</t>
+  </si>
+  <si>
+    <t>eb11-s09-0012</t>
+  </si>
+  <si>
+    <t>eb11-s09-0013</t>
+  </si>
+  <si>
+    <t>eb11-s09-0014</t>
+  </si>
+  <si>
+    <t>eb11-s09-0015</t>
+  </si>
+  <si>
+    <t>eb11-s09-0016</t>
+  </si>
+  <si>
+    <t>eb11-s09-0017</t>
+  </si>
+  <si>
+    <t>eb11-s09-0018</t>
+  </si>
+  <si>
+    <t>eb11-s09-0019</t>
+  </si>
+  <si>
+    <t>eb11-s09-0020</t>
+  </si>
+  <si>
+    <t>eb11-s09-0021</t>
+  </si>
+  <si>
+    <t>eb11-s09-0022</t>
+  </si>
+  <si>
+    <t>eb11-s09-0023</t>
+  </si>
+  <si>
+    <t>eb11-s09-0024</t>
+  </si>
+  <si>
+    <t>eb11-s09-0025</t>
+  </si>
+  <si>
+    <t>eb11-s09-0026</t>
+  </si>
+  <si>
+    <t>eb11-s09-0027</t>
+  </si>
+  <si>
+    <t>eb11-s09-0028</t>
+  </si>
+  <si>
+    <t>eb11-s09-0029</t>
+  </si>
+  <si>
+    <t>eb11-s09-0030</t>
+  </si>
+  <si>
+    <t>eb11-s09-0031</t>
+  </si>
+  <si>
+    <t>eb11-s09-0032</t>
+  </si>
+  <si>
+    <t>eb11-s09-0033</t>
+  </si>
+  <si>
+    <t>eb11-s09-0034</t>
+  </si>
+  <si>
+    <t>eb11-s09-0035</t>
+  </si>
+  <si>
+    <t>eb11-s09-0036</t>
+  </si>
+  <si>
+    <t>eb11-s09-0037</t>
+  </si>
+  <si>
+    <t>eb11-s09-0038</t>
+  </si>
+  <si>
+    <t>eb11-s09-0039</t>
+  </si>
+  <si>
+    <t>eb11-s09-0040</t>
+  </si>
+  <si>
+    <t>eb11-s09-0041</t>
+  </si>
+  <si>
+    <t>eb11-s09-0042</t>
+  </si>
+  <si>
+    <t>eb11-s09-0043</t>
+  </si>
+  <si>
+    <t>eb11-s09-0044</t>
+  </si>
+  <si>
+    <t>eb11-s09-0045</t>
+  </si>
+  <si>
+    <t>eb11-s09-0046</t>
+  </si>
+  <si>
+    <t>eb11-s09-0047</t>
+  </si>
+  <si>
+    <t>eb11-s09-0048</t>
+  </si>
+  <si>
+    <t>eb11-s09-0049</t>
+  </si>
+  <si>
+    <t>eb11-s09-0050</t>
+  </si>
+  <si>
+    <t>eb11-s09-0051</t>
+  </si>
+  <si>
+    <t>eb11-s09-0052</t>
+  </si>
+  <si>
+    <t>eb11-s09-0053</t>
+  </si>
+  <si>
+    <t>eb11-s09-0054</t>
+  </si>
+  <si>
+    <t>eb11-s09-0055</t>
+  </si>
+  <si>
+    <t>eb11-s09-0056</t>
+  </si>
+  <si>
+    <t>eb11-s09-0057</t>
+  </si>
+  <si>
+    <t>eb11-s09-0058</t>
+  </si>
+  <si>
+    <t>eb11-s09-0059</t>
+  </si>
+  <si>
+    <t>eb11-s09-0060</t>
+  </si>
+  <si>
+    <t>eb11-s09-0061</t>
+  </si>
+  <si>
+    <t>eb11-s09-0062</t>
+  </si>
+  <si>
+    <t>eb11-s09-0063</t>
+  </si>
+  <si>
+    <t>eb11-s09-0064</t>
+  </si>
+  <si>
+    <t>eb11-s09-0065</t>
+  </si>
+  <si>
+    <t>eb11-s09-0066</t>
+  </si>
+  <si>
+    <t>eb11-s09-0067</t>
+  </si>
+  <si>
+    <t>eb11-s09-0068</t>
+  </si>
+  <si>
+    <t>eb11-s09-0069</t>
+  </si>
+  <si>
+    <t>eb11-s09-0070</t>
+  </si>
+  <si>
+    <t>eb11-s09-0071</t>
+  </si>
+  <si>
+    <t>eb11-s09-0072</t>
+  </si>
+  <si>
+    <t>eb11-s09-0073</t>
+  </si>
+  <si>
+    <t>eb11-s09-0074</t>
+  </si>
+  <si>
+    <t>eb11-s09-0075</t>
+  </si>
+  <si>
+    <t>eb11-s09-0076</t>
+  </si>
+  <si>
+    <t>eb11-s09-0077</t>
+  </si>
+  <si>
+    <t>eb11-s09-0078</t>
+  </si>
+  <si>
+    <t>eb11-s09-0079</t>
+  </si>
+  <si>
+    <t>eb11-s09-0080</t>
+  </si>
+  <si>
+    <t>eb11-s09-0081</t>
+  </si>
+  <si>
+    <t>eb11-s09-0082</t>
+  </si>
+  <si>
+    <t>eb11-s09-0083</t>
+  </si>
+  <si>
+    <t>eb11-s09-0084</t>
+  </si>
+  <si>
+    <t>eb11-s09-0085</t>
+  </si>
+  <si>
+    <t>eb11-s09-0086</t>
+  </si>
+  <si>
+    <t>eb11-s09-0087</t>
+  </si>
+  <si>
+    <t>eb11-s09-0088</t>
+  </si>
+  <si>
+    <t>eb11-s09-0089</t>
+  </si>
+  <si>
+    <t>eb11-s09-0090</t>
+  </si>
+  <si>
+    <t>eb11-s09-0091</t>
+  </si>
+  <si>
+    <t>eb11-s09-0092</t>
+  </si>
+  <si>
+    <t>eb11-s09-0093</t>
+  </si>
+  <si>
+    <t>eb11-s09-0094</t>
+  </si>
+  <si>
+    <t>eb11-s09-0095</t>
+  </si>
+  <si>
+    <t>eb11-s09-0096</t>
+  </si>
+  <si>
+    <t>eb11-s09-0097</t>
+  </si>
+  <si>
+    <t>eb11-s09-0098</t>
+  </si>
+  <si>
+    <t>eb11-s09-0099</t>
+  </si>
+  <si>
+    <t>eb11-s09-0100</t>
+  </si>
+  <si>
+    <t>eb11-s09-0101</t>
+  </si>
+  <si>
+    <t>eb11-s09-0102</t>
+  </si>
+  <si>
+    <t>eb11-s09-0103</t>
+  </si>
+  <si>
+    <t>eb11-s09-0104</t>
+  </si>
+  <si>
+    <t>eb11-s09-0105</t>
+  </si>
+  <si>
+    <t>eb11-s09-0106</t>
+  </si>
+  <si>
+    <t>eb11-s09-0107</t>
+  </si>
+  <si>
+    <t>eb11-s09-0108</t>
+  </si>
+  <si>
+    <t>eb11-s09-0109</t>
+  </si>
+  <si>
+    <t>eb11-s09-0110</t>
+  </si>
+  <si>
+    <t>eb11-s09-0111</t>
+  </si>
+  <si>
+    <t>eb11-s09-0112</t>
+  </si>
+  <si>
+    <t>eb11-s09-0113</t>
+  </si>
+  <si>
+    <t>eb11-s09-0114</t>
+  </si>
+  <si>
+    <t>eb11-s09-0115</t>
+  </si>
+  <si>
+    <t>eb11-s09-0116</t>
+  </si>
+  <si>
+    <t>eb11-s09-0117</t>
+  </si>
+  <si>
+    <t>eb11-s09-0118</t>
+  </si>
+  <si>
+    <t>eb11-s09-0119</t>
+  </si>
+  <si>
+    <t>eb11-s09-0120</t>
+  </si>
+  <si>
+    <t>eb11-s09-0121</t>
+  </si>
+  <si>
+    <t>eb11-s09-0122</t>
+  </si>
+  <si>
+    <t>eb11-s09-0123</t>
+  </si>
+  <si>
+    <t>eb11-s09-0124</t>
+  </si>
+  <si>
+    <t>eb11-s09-0125</t>
+  </si>
+  <si>
+    <t>eb11-s09-0126</t>
+  </si>
+  <si>
+    <t>eb11-s09-0127</t>
+  </si>
+  <si>
+    <t>eb11-s09-0128</t>
+  </si>
+  <si>
+    <t>eb11-s09-0129</t>
+  </si>
+  <si>
+    <t>eb11-s09-0130</t>
+  </si>
+  <si>
+    <t>eb11-s09-0131</t>
+  </si>
+  <si>
+    <t>eb11-s09-0132</t>
+  </si>
+  <si>
+    <t>eb11-s09-0133</t>
+  </si>
+  <si>
+    <t>eb11-s09-0134</t>
+  </si>
+  <si>
+    <t>eb11-s09-0135</t>
+  </si>
+  <si>
+    <t>eb11-s09-0136</t>
+  </si>
+  <si>
+    <t>eb11-s09-0137</t>
+  </si>
+  <si>
+    <t>eb11-s09-0138</t>
+  </si>
+  <si>
+    <t>eb11-s09-0139</t>
+  </si>
+  <si>
+    <t>eb11-s09-0140</t>
+  </si>
+  <si>
+    <t>eb11-s09-0141</t>
+  </si>
+  <si>
+    <t>eb11-s09-0142</t>
+  </si>
+  <si>
+    <t>eb11-s09-0143</t>
+  </si>
+  <si>
+    <t>eb11-s09-0144</t>
+  </si>
+  <si>
+    <t>eb11-s09-0145</t>
+  </si>
+  <si>
+    <t>eb11-s09-0146</t>
+  </si>
+  <si>
+    <t>eb11-s09-0147</t>
+  </si>
+  <si>
+    <t>eb11-s09-0148</t>
+  </si>
+  <si>
+    <t>eb11-s09-0149</t>
+  </si>
+  <si>
+    <t>eb11-s09-0150</t>
+  </si>
+  <si>
+    <t>eb11-s09-0151</t>
+  </si>
+  <si>
+    <t>eb11-s09-0152</t>
+  </si>
+  <si>
+    <t>eb11-s09-0153</t>
+  </si>
+  <si>
+    <t>eb11-s09-0154</t>
+  </si>
+  <si>
+    <t>eb11-s09-0155</t>
+  </si>
+  <si>
+    <t>eb11-s09-0156</t>
+  </si>
+  <si>
+    <t>eb11-s09-0157</t>
+  </si>
+  <si>
+    <t>eb11-s09-0158</t>
+  </si>
+  <si>
+    <t>eb11-s09-0159</t>
+  </si>
+  <si>
+    <t>eb11-s09-0160</t>
+  </si>
+  <si>
+    <t>eb11-s09-0161</t>
+  </si>
+  <si>
+    <t>eb11-s09-0162</t>
+  </si>
+  <si>
+    <t>eb11-s09-0163</t>
+  </si>
+  <si>
+    <t>eb11-s09-0164</t>
+  </si>
+  <si>
+    <t>eb11-s09-0165</t>
+  </si>
+  <si>
+    <t>eb11-s09-0166</t>
+  </si>
+  <si>
+    <t>eb11-s09-0167</t>
+  </si>
+  <si>
+    <t>eb11-s09-0168</t>
+  </si>
+  <si>
+    <t>eb11-s09-0169</t>
+  </si>
+  <si>
+    <t>eb11-s09-0170</t>
+  </si>
+  <si>
+    <t>eb11-s09-0171</t>
+  </si>
+  <si>
+    <t>eb11-s09-0172</t>
+  </si>
+  <si>
+    <t>eb11-s09-0173</t>
+  </si>
+  <si>
+    <t>eb11-s09-0174</t>
+  </si>
+  <si>
+    <t>eb11-s09-0175</t>
+  </si>
+  <si>
+    <t>eb11-s09-0176</t>
+  </si>
+  <si>
+    <t>eb11-s09-0177</t>
+  </si>
+  <si>
+    <t>eb11-s09-0178</t>
+  </si>
+  <si>
+    <t>eb11-s09-0179</t>
+  </si>
+  <si>
+    <t>eb11-s09-0180</t>
+  </si>
+  <si>
+    <t>eb11-s09-0181</t>
+  </si>
+  <si>
+    <t>eb11-s09-0182</t>
+  </si>
+  <si>
+    <t>eb11-s09-0183</t>
+  </si>
+  <si>
+    <t>eb11-s09-0184</t>
+  </si>
+  <si>
+    <t>eb11-s09-0185</t>
+  </si>
+  <si>
+    <t>eb11-s09-0186</t>
+  </si>
+  <si>
+    <t>eb11-s09-0187</t>
+  </si>
+  <si>
+    <t>eb11-s09-0188</t>
+  </si>
+  <si>
+    <t>eb11-s09-0189</t>
+  </si>
+  <si>
+    <t>eb11-s09-0190</t>
+  </si>
+  <si>
+    <t>eb11-s09-0191</t>
+  </si>
+  <si>
+    <t>eb11-s09-0192</t>
+  </si>
+  <si>
+    <t>eb11-s09-0193</t>
+  </si>
+  <si>
+    <t>eb11-s09-0194</t>
+  </si>
+  <si>
+    <t>eb11-s09-0195</t>
+  </si>
+  <si>
+    <t>eb11-s09-0196</t>
+  </si>
+  <si>
+    <t>eb11-s09-0197</t>
+  </si>
+  <si>
+    <t>eb11-s09-0198</t>
+  </si>
+  <si>
+    <t>eb11-s09-0199</t>
+  </si>
+  <si>
+    <t>eb11-s09-0200</t>
+  </si>
+  <si>
+    <t>eb11-s09-0201</t>
+  </si>
+  <si>
+    <t>eb11-s09-0202</t>
+  </si>
+  <si>
+    <t>eb11-s09-0203</t>
+  </si>
+  <si>
+    <t>eb11-s09-0204</t>
+  </si>
+  <si>
+    <t>eb11-s09-0205</t>
+  </si>
+  <si>
+    <t>eb11-s09-0206</t>
+  </si>
+  <si>
+    <t>eb11-s09-0207</t>
+  </si>
+  <si>
+    <t>eb11-s09-0208</t>
+  </si>
+  <si>
+    <t>eb11-s09-0209</t>
+  </si>
+  <si>
+    <t>eb11-s09-0210</t>
+  </si>
+  <si>
+    <t>eb11-s09-0211</t>
+  </si>
+  <si>
+    <t>eb11-s09-0212</t>
+  </si>
+  <si>
+    <t>eb11-s09-0213</t>
+  </si>
+  <si>
+    <t>eb11-s09-0214</t>
+  </si>
+  <si>
+    <t>eb11-s09-0215</t>
+  </si>
+  <si>
+    <t>eb11-s09-0216</t>
+  </si>
+  <si>
+    <t>eb11-s09-0217</t>
+  </si>
+  <si>
+    <t>eb11-s09-0218</t>
+  </si>
+  <si>
+    <t>eb11-s09-0219</t>
+  </si>
+  <si>
+    <t>eb11-s09-0220</t>
+  </si>
+  <si>
+    <t>eb11-s09-0221</t>
+  </si>
+  <si>
+    <t>eb11-s09-0222</t>
+  </si>
+  <si>
+    <t>eb11-s09-0223</t>
+  </si>
+  <si>
+    <t>eb11-s09-0224</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1867,8 @@
   <dimension ref="A1:L244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A209" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L230" sqref="L230"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E188" sqref="E188:E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1257,7 +1932,15 @@
       <c r="D2">
         <v>451</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G2" s="10">
+        <v>43598</v>
+      </c>
       <c r="H2" s="11"/>
       <c r="I2" s="13"/>
       <c r="J2" s="5"/>
@@ -1277,7 +1960,9 @@
       <c r="D3">
         <v>452</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="13"/>
       <c r="J3" s="5"/>
@@ -1295,7 +1980,9 @@
       <c r="D4">
         <v>453</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>267</v>
+      </c>
       <c r="H4" s="11"/>
       <c r="I4" s="13"/>
       <c r="J4" s="5"/>
@@ -1315,7 +2002,9 @@
       <c r="D5">
         <v>454</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>268</v>
+      </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
       <c r="I5" s="13"/>
@@ -1336,7 +2025,9 @@
       <c r="D6">
         <v>455</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>269</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="13"/>
       <c r="J6" s="5"/>
@@ -1356,7 +2047,9 @@
       <c r="D7">
         <v>456</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>270</v>
+      </c>
       <c r="H7" s="11"/>
       <c r="I7" s="13"/>
       <c r="J7" s="5"/>
@@ -1374,7 +2067,9 @@
       <c r="D8">
         <v>457</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>271</v>
+      </c>
       <c r="H8" s="11"/>
       <c r="I8" s="13"/>
       <c r="J8" s="5"/>
@@ -1392,7 +2087,9 @@
       <c r="D9">
         <v>458</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13"/>
       <c r="J9" s="5"/>
@@ -1412,7 +2109,9 @@
       <c r="D10">
         <v>459</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>273</v>
+      </c>
       <c r="H10" s="11"/>
       <c r="I10" s="13"/>
       <c r="J10" s="5"/>
@@ -1432,7 +2131,9 @@
       <c r="D11">
         <v>460</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H11" s="11"/>
       <c r="I11" s="13"/>
       <c r="J11" s="5"/>
@@ -1450,7 +2151,9 @@
       <c r="D12">
         <v>461</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="H12" s="11"/>
       <c r="I12" s="13"/>
       <c r="J12" s="5"/>
@@ -1468,7 +2171,9 @@
       <c r="D13">
         <v>462</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="H13" s="11"/>
       <c r="I13" s="13"/>
       <c r="J13" s="5"/>
@@ -1486,7 +2191,9 @@
       <c r="D14">
         <v>463</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H14" s="11"/>
       <c r="I14" s="13"/>
       <c r="J14" s="5"/>
@@ -1504,7 +2211,9 @@
       <c r="D15">
         <v>464</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H15" s="11"/>
       <c r="I15" s="13"/>
       <c r="J15" s="5"/>
@@ -1524,7 +2233,9 @@
       <c r="D16">
         <v>465</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>279</v>
+      </c>
       <c r="H16" s="11"/>
       <c r="I16" s="13"/>
       <c r="J16" s="5"/>
@@ -1542,7 +2253,9 @@
       <c r="D17">
         <v>466</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H17" s="11"/>
       <c r="I17" s="13"/>
       <c r="J17" s="5"/>
@@ -1632,7 +2345,9 @@
       <c r="D22">
         <v>467</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="H22" s="11"/>
       <c r="I22" s="13"/>
       <c r="J22" s="5"/>
@@ -1650,7 +2365,9 @@
       <c r="D23">
         <v>468</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="E23" s="5" t="s">
+        <v>281</v>
+      </c>
       <c r="H23" s="11"/>
       <c r="I23" s="13"/>
       <c r="J23" s="5"/>
@@ -1668,7 +2385,9 @@
       <c r="D24">
         <v>469</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="E24" s="5" t="s">
+        <v>282</v>
+      </c>
       <c r="H24" s="11"/>
       <c r="I24" s="13"/>
       <c r="J24" s="5"/>
@@ -1686,7 +2405,9 @@
       <c r="D25">
         <v>470</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="E25" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="H25" s="11"/>
       <c r="I25" s="13"/>
       <c r="J25" s="5"/>
@@ -1704,7 +2425,9 @@
       <c r="D26">
         <v>471</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="E26" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="H26" s="11"/>
       <c r="I26" s="13"/>
       <c r="J26" s="5"/>
@@ -1722,7 +2445,9 @@
       <c r="D27">
         <v>472</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="E27" s="5" t="s">
+        <v>285</v>
+      </c>
       <c r="H27" s="11"/>
       <c r="I27" s="13"/>
       <c r="J27" s="5"/>
@@ -1740,7 +2465,9 @@
       <c r="D28">
         <v>473</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="E28" s="5" t="s">
+        <v>286</v>
+      </c>
       <c r="H28" s="11"/>
       <c r="I28" s="13"/>
       <c r="J28" s="5"/>
@@ -1758,7 +2485,9 @@
       <c r="D29">
         <v>474</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>287</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="13"/>
       <c r="J29" s="5"/>
@@ -1776,7 +2505,9 @@
       <c r="D30">
         <v>475</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="E30" s="5" t="s">
+        <v>288</v>
+      </c>
       <c r="H30" s="11"/>
       <c r="I30" s="13"/>
       <c r="J30" s="5"/>
@@ -1794,7 +2525,9 @@
       <c r="D31">
         <v>476</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="E31" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="H31" s="11"/>
       <c r="I31" s="13"/>
       <c r="J31" s="5"/>
@@ -1812,7 +2545,9 @@
       <c r="D32">
         <v>477</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="E32" s="5" t="s">
+        <v>290</v>
+      </c>
       <c r="H32" s="11"/>
       <c r="I32" s="13"/>
       <c r="J32" s="5"/>
@@ -1830,7 +2565,9 @@
       <c r="D33">
         <v>478</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>291</v>
+      </c>
       <c r="H33" s="11"/>
       <c r="I33" s="13"/>
       <c r="J33" s="5"/>
@@ -1848,7 +2585,9 @@
       <c r="D34">
         <v>479</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>292</v>
+      </c>
       <c r="H34" s="11"/>
       <c r="I34" s="13"/>
       <c r="J34" s="5"/>
@@ -1866,7 +2605,9 @@
       <c r="D35">
         <v>480</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>293</v>
+      </c>
       <c r="H35" s="11"/>
       <c r="I35" s="13"/>
       <c r="J35" s="5"/>
@@ -1884,7 +2625,9 @@
       <c r="D36">
         <v>481</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>294</v>
+      </c>
       <c r="H36" s="11"/>
       <c r="I36" s="13"/>
       <c r="J36" s="5"/>
@@ -1902,7 +2645,9 @@
       <c r="D37">
         <v>482</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="E37" s="5" t="s">
+        <v>295</v>
+      </c>
       <c r="H37" s="11"/>
       <c r="I37" s="13"/>
       <c r="J37" s="5"/>
@@ -1920,7 +2665,9 @@
       <c r="D38">
         <v>483</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="E38" s="5" t="s">
+        <v>296</v>
+      </c>
       <c r="H38" s="11"/>
       <c r="I38" s="13"/>
       <c r="J38" s="5"/>
@@ -1938,7 +2685,9 @@
       <c r="D39">
         <v>484</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>297</v>
+      </c>
       <c r="H39" s="11"/>
       <c r="I39" s="13"/>
       <c r="J39" s="5"/>
@@ -1956,7 +2705,9 @@
       <c r="D40">
         <v>485</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>298</v>
+      </c>
       <c r="H40" s="11"/>
       <c r="I40" s="13"/>
       <c r="J40" s="5"/>
@@ -1974,7 +2725,9 @@
       <c r="D41">
         <v>486</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="E41" s="5" t="s">
+        <v>299</v>
+      </c>
       <c r="H41" s="11"/>
       <c r="I41" s="13"/>
       <c r="J41" s="5"/>
@@ -2064,7 +2817,9 @@
       <c r="D46">
         <v>487</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>300</v>
+      </c>
       <c r="H46" s="11"/>
       <c r="I46" s="13"/>
       <c r="J46" s="5"/>
@@ -2082,7 +2837,9 @@
       <c r="D47">
         <v>488</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>301</v>
+      </c>
       <c r="H47" s="11"/>
       <c r="I47" s="13"/>
       <c r="J47" s="5"/>
@@ -2100,7 +2857,9 @@
       <c r="D48">
         <v>489</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>302</v>
+      </c>
       <c r="H48" s="11"/>
       <c r="I48" s="13"/>
       <c r="J48" s="5"/>
@@ -2120,7 +2879,9 @@
       <c r="D49">
         <v>490</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>303</v>
+      </c>
       <c r="H49" s="11"/>
       <c r="I49" s="13"/>
       <c r="J49" s="5"/>
@@ -2138,7 +2899,9 @@
       <c r="D50">
         <v>491</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>304</v>
+      </c>
       <c r="H50" s="11"/>
       <c r="I50" s="13"/>
       <c r="J50" s="5"/>
@@ -2156,7 +2919,9 @@
       <c r="D51">
         <v>492</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>305</v>
+      </c>
       <c r="H51" s="11"/>
       <c r="I51" s="13"/>
       <c r="J51" s="5"/>
@@ -2174,7 +2939,9 @@
       <c r="D52">
         <v>493</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>306</v>
+      </c>
       <c r="H52" s="11"/>
       <c r="I52" s="13"/>
       <c r="J52" s="5"/>
@@ -2192,7 +2959,9 @@
       <c r="D53">
         <v>494</v>
       </c>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>307</v>
+      </c>
       <c r="H53" s="11"/>
       <c r="I53" s="13"/>
       <c r="J53" s="5"/>
@@ -2212,7 +2981,9 @@
       <c r="D54">
         <v>495</v>
       </c>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>308</v>
+      </c>
       <c r="H54" s="11"/>
       <c r="I54" s="13"/>
       <c r="J54" s="5"/>
@@ -2232,7 +3003,9 @@
       <c r="D55">
         <v>496</v>
       </c>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>309</v>
+      </c>
       <c r="H55" s="11"/>
       <c r="I55" s="13"/>
       <c r="J55" s="5"/>
@@ -2252,7 +3025,9 @@
       <c r="D56">
         <v>497</v>
       </c>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>310</v>
+      </c>
       <c r="H56" s="11"/>
       <c r="I56" s="13"/>
       <c r="J56" s="5"/>
@@ -2270,7 +3045,9 @@
       <c r="D57">
         <v>498</v>
       </c>
-      <c r="E57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>311</v>
+      </c>
       <c r="H57" s="11"/>
       <c r="I57" s="13"/>
       <c r="J57" s="5"/>
@@ -2288,7 +3065,9 @@
       <c r="D58">
         <v>499</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>312</v>
+      </c>
       <c r="H58" s="11"/>
       <c r="I58" s="13"/>
       <c r="J58" s="5"/>
@@ -2306,7 +3085,9 @@
       <c r="D59">
         <v>500</v>
       </c>
-      <c r="E59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>313</v>
+      </c>
       <c r="H59" s="11"/>
       <c r="I59" s="13"/>
       <c r="J59" s="5"/>
@@ -2360,7 +3141,9 @@
       <c r="D62">
         <v>501</v>
       </c>
-      <c r="E62" s="5"/>
+      <c r="E62" s="5" t="s">
+        <v>314</v>
+      </c>
       <c r="H62" s="11"/>
       <c r="I62" s="13"/>
       <c r="J62" s="5"/>
@@ -2378,7 +3161,9 @@
       <c r="D63">
         <v>502</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>315</v>
+      </c>
       <c r="H63" s="11"/>
       <c r="I63" s="13"/>
       <c r="J63" s="5"/>
@@ -2396,7 +3181,9 @@
       <c r="D64">
         <v>503</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>316</v>
+      </c>
       <c r="H64" s="11"/>
       <c r="I64" s="13"/>
       <c r="J64" s="5"/>
@@ -2414,7 +3201,9 @@
       <c r="D65">
         <v>504</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="5" t="s">
+        <v>317</v>
+      </c>
       <c r="H65" s="11"/>
       <c r="I65" s="13"/>
       <c r="J65" s="5"/>
@@ -2432,7 +3221,9 @@
       <c r="D66">
         <v>505</v>
       </c>
-      <c r="E66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>318</v>
+      </c>
       <c r="H66" s="11"/>
       <c r="I66" s="13"/>
       <c r="J66" s="5"/>
@@ -2452,7 +3243,9 @@
       <c r="D67">
         <v>506</v>
       </c>
-      <c r="E67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>319</v>
+      </c>
       <c r="H67" s="11"/>
       <c r="I67" s="13"/>
       <c r="J67" s="5"/>
@@ -2508,7 +3301,9 @@
       <c r="D70">
         <v>507</v>
       </c>
-      <c r="E70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>320</v>
+      </c>
       <c r="F70" s="3"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -2528,7 +3323,9 @@
       <c r="D71">
         <v>508</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>321</v>
+      </c>
       <c r="F71" s="3"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -2548,7 +3345,9 @@
       <c r="D72">
         <v>509</v>
       </c>
-      <c r="E72" s="5"/>
+      <c r="E72" s="5" t="s">
+        <v>322</v>
+      </c>
       <c r="F72" s="3"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -2568,7 +3367,9 @@
       <c r="D73">
         <v>510</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>323</v>
+      </c>
       <c r="F73" s="3"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -2588,7 +3389,9 @@
       <c r="D74">
         <v>511</v>
       </c>
-      <c r="E74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>324</v>
+      </c>
       <c r="F74" s="3"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -2608,7 +3411,9 @@
       <c r="D75">
         <v>512</v>
       </c>
-      <c r="E75" s="5"/>
+      <c r="E75" s="5" t="s">
+        <v>325</v>
+      </c>
       <c r="F75" s="3"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -2628,7 +3433,9 @@
       <c r="D76">
         <v>513</v>
       </c>
-      <c r="E76" s="5"/>
+      <c r="E76" s="5" t="s">
+        <v>326</v>
+      </c>
       <c r="F76" s="3"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -2648,7 +3455,9 @@
       <c r="D77">
         <v>514</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="5" t="s">
+        <v>327</v>
+      </c>
       <c r="F77" s="3"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -2668,7 +3477,9 @@
       <c r="D78">
         <v>515</v>
       </c>
-      <c r="E78" s="5"/>
+      <c r="E78" s="5" t="s">
+        <v>328</v>
+      </c>
       <c r="F78" s="3"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -2688,7 +3499,9 @@
       <c r="D79">
         <v>516</v>
       </c>
-      <c r="E79" s="5"/>
+      <c r="E79" s="5" t="s">
+        <v>329</v>
+      </c>
       <c r="F79" s="3"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -2708,7 +3521,9 @@
       <c r="D80">
         <v>517</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="5" t="s">
+        <v>330</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -2728,7 +3543,9 @@
       <c r="D81">
         <v>518</v>
       </c>
-      <c r="E81" s="5"/>
+      <c r="E81" s="5" t="s">
+        <v>331</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -2748,7 +3565,9 @@
       <c r="D82">
         <v>519</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="5" t="s">
+        <v>332</v>
+      </c>
       <c r="F82" s="3"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -2768,7 +3587,9 @@
       <c r="D83">
         <v>520</v>
       </c>
-      <c r="E83" s="5"/>
+      <c r="E83" s="5" t="s">
+        <v>333</v>
+      </c>
       <c r="F83" s="3"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -2788,7 +3609,9 @@
       <c r="D84">
         <v>521</v>
       </c>
-      <c r="E84" s="5"/>
+      <c r="E84" s="5" t="s">
+        <v>334</v>
+      </c>
       <c r="F84" s="3"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -2808,7 +3631,9 @@
       <c r="D85">
         <v>522</v>
       </c>
-      <c r="E85" s="5"/>
+      <c r="E85" s="5" t="s">
+        <v>335</v>
+      </c>
       <c r="F85" s="3"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2828,7 +3653,9 @@
       <c r="D86">
         <v>523</v>
       </c>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>336</v>
+      </c>
       <c r="F86" s="3"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -2848,7 +3675,9 @@
       <c r="D87">
         <v>524</v>
       </c>
-      <c r="E87" s="5"/>
+      <c r="E87" s="5" t="s">
+        <v>337</v>
+      </c>
       <c r="F87" s="3"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -2868,7 +3697,9 @@
       <c r="D88">
         <v>525</v>
       </c>
-      <c r="E88" s="5"/>
+      <c r="E88" s="5" t="s">
+        <v>338</v>
+      </c>
       <c r="F88" s="3"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -2888,7 +3719,9 @@
       <c r="D89">
         <v>526</v>
       </c>
-      <c r="E89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>339</v>
+      </c>
       <c r="F89" s="3"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -2908,7 +3741,9 @@
       <c r="D90">
         <v>527</v>
       </c>
-      <c r="E90" s="5"/>
+      <c r="E90" s="5" t="s">
+        <v>340</v>
+      </c>
       <c r="F90" s="3"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -2928,7 +3763,9 @@
       <c r="D91">
         <v>528</v>
       </c>
-      <c r="E91" s="5"/>
+      <c r="E91" s="5" t="s">
+        <v>341</v>
+      </c>
       <c r="F91" s="3"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -2948,7 +3785,9 @@
       <c r="D92">
         <v>529</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="5" t="s">
+        <v>342</v>
+      </c>
       <c r="F92" s="3"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -2968,7 +3807,9 @@
       <c r="D93">
         <v>530</v>
       </c>
-      <c r="E93" s="5"/>
+      <c r="E93" s="5" t="s">
+        <v>343</v>
+      </c>
       <c r="F93" s="3"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -3070,7 +3911,9 @@
       <c r="D98">
         <v>531</v>
       </c>
-      <c r="E98" s="5"/>
+      <c r="E98" s="5" t="s">
+        <v>344</v>
+      </c>
       <c r="F98" s="3"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -3092,7 +3935,9 @@
       <c r="D99">
         <v>532</v>
       </c>
-      <c r="E99" s="5"/>
+      <c r="E99" s="5" t="s">
+        <v>345</v>
+      </c>
       <c r="F99" s="3"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -3112,7 +3957,9 @@
       <c r="D100">
         <v>533</v>
       </c>
-      <c r="E100" s="5"/>
+      <c r="E100" s="5" t="s">
+        <v>346</v>
+      </c>
       <c r="F100" s="3"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -3132,7 +3979,9 @@
       <c r="D101">
         <v>534</v>
       </c>
-      <c r="E101" s="5"/>
+      <c r="E101" s="5" t="s">
+        <v>347</v>
+      </c>
       <c r="F101" s="3"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -3154,7 +4003,9 @@
       <c r="D102">
         <v>535</v>
       </c>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>348</v>
+      </c>
       <c r="F102" s="3"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -3174,7 +4025,9 @@
       <c r="D103">
         <v>536</v>
       </c>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>349</v>
+      </c>
       <c r="F103" s="3"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -3194,7 +4047,9 @@
       <c r="D104">
         <v>537</v>
       </c>
-      <c r="E104" s="5"/>
+      <c r="E104" s="5" t="s">
+        <v>350</v>
+      </c>
       <c r="F104" s="3"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -3214,7 +4069,9 @@
       <c r="D105">
         <v>538</v>
       </c>
-      <c r="E105" s="5"/>
+      <c r="E105" s="5" t="s">
+        <v>351</v>
+      </c>
       <c r="F105" s="3"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -3234,7 +4091,9 @@
       <c r="D106">
         <v>539</v>
       </c>
-      <c r="E106" s="5"/>
+      <c r="E106" s="5" t="s">
+        <v>352</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -3254,7 +4113,9 @@
       <c r="D107">
         <v>540</v>
       </c>
-      <c r="E107" s="5"/>
+      <c r="E107" s="5" t="s">
+        <v>353</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -3274,7 +4135,9 @@
       <c r="D108">
         <v>541</v>
       </c>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>354</v>
+      </c>
       <c r="F108" s="3"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -3294,7 +4157,9 @@
       <c r="D109">
         <v>542</v>
       </c>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>355</v>
+      </c>
       <c r="F109" s="3"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -3314,7 +4179,9 @@
       <c r="D110">
         <v>543</v>
       </c>
-      <c r="E110" s="5"/>
+      <c r="E110" s="5" t="s">
+        <v>356</v>
+      </c>
       <c r="F110" s="3"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -3334,7 +4201,9 @@
       <c r="D111">
         <v>544</v>
       </c>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>357</v>
+      </c>
       <c r="F111" s="3"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -3354,7 +4223,9 @@
       <c r="D112">
         <v>545</v>
       </c>
-      <c r="E112" s="5"/>
+      <c r="E112" s="5" t="s">
+        <v>358</v>
+      </c>
       <c r="F112" s="3"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -3374,7 +4245,9 @@
       <c r="D113">
         <v>546</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="5" t="s">
+        <v>359</v>
+      </c>
       <c r="F113" s="3"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -3394,7 +4267,9 @@
       <c r="D114">
         <v>547</v>
       </c>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>360</v>
+      </c>
       <c r="F114" s="3"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -3414,7 +4289,9 @@
       <c r="D115">
         <v>548</v>
       </c>
-      <c r="E115" s="5"/>
+      <c r="E115" s="5" t="s">
+        <v>361</v>
+      </c>
       <c r="F115" s="3"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -3434,7 +4311,9 @@
       <c r="D116">
         <v>549</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="5" t="s">
+        <v>362</v>
+      </c>
       <c r="F116" s="3"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -3454,7 +4333,9 @@
       <c r="D117">
         <v>550</v>
       </c>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>363</v>
+      </c>
       <c r="F117" s="3"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -3474,7 +4355,9 @@
       <c r="D118">
         <v>551</v>
       </c>
-      <c r="E118" s="5"/>
+      <c r="E118" s="5" t="s">
+        <v>364</v>
+      </c>
       <c r="F118" s="3"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -3494,7 +4377,9 @@
       <c r="D119">
         <v>552</v>
       </c>
-      <c r="E119" s="5"/>
+      <c r="E119" s="5" t="s">
+        <v>365</v>
+      </c>
       <c r="F119" s="3"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -3514,7 +4399,9 @@
       <c r="D120">
         <v>553</v>
       </c>
-      <c r="E120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>366</v>
+      </c>
       <c r="F120" s="3"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -3534,7 +4421,9 @@
       <c r="D121">
         <v>554</v>
       </c>
-      <c r="E121" s="5"/>
+      <c r="E121" s="5" t="s">
+        <v>367</v>
+      </c>
       <c r="F121" s="3"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -3554,7 +4443,9 @@
       <c r="D122">
         <v>555</v>
       </c>
-      <c r="E122" s="5"/>
+      <c r="E122" s="5" t="s">
+        <v>368</v>
+      </c>
       <c r="F122" s="3"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -3574,7 +4465,9 @@
       <c r="D123">
         <v>556</v>
       </c>
-      <c r="E123" s="5"/>
+      <c r="E123" s="5" t="s">
+        <v>369</v>
+      </c>
       <c r="F123" s="3"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -3594,7 +4487,9 @@
       <c r="D124">
         <v>557</v>
       </c>
-      <c r="E124" s="5"/>
+      <c r="E124" s="5" t="s">
+        <v>370</v>
+      </c>
       <c r="F124" s="3"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -3614,7 +4509,9 @@
       <c r="D125">
         <v>558</v>
       </c>
-      <c r="E125" s="5"/>
+      <c r="E125" s="5" t="s">
+        <v>371</v>
+      </c>
       <c r="F125" s="3"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -3634,7 +4531,9 @@
       <c r="D126">
         <v>559</v>
       </c>
-      <c r="E126" s="5"/>
+      <c r="E126" s="5" t="s">
+        <v>372</v>
+      </c>
       <c r="F126" s="3"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -3654,7 +4553,9 @@
       <c r="D127">
         <v>560</v>
       </c>
-      <c r="E127" s="5"/>
+      <c r="E127" s="5" t="s">
+        <v>373</v>
+      </c>
       <c r="F127" s="3"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -3674,7 +4575,9 @@
       <c r="D128">
         <v>561</v>
       </c>
-      <c r="E128" s="5"/>
+      <c r="E128" s="5" t="s">
+        <v>374</v>
+      </c>
       <c r="F128" s="3"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -3694,7 +4597,9 @@
       <c r="D129">
         <v>562</v>
       </c>
-      <c r="E129" s="5"/>
+      <c r="E129" s="5" t="s">
+        <v>375</v>
+      </c>
       <c r="F129" s="3"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -3714,7 +4619,9 @@
       <c r="D130">
         <v>563</v>
       </c>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>376</v>
+      </c>
       <c r="F130" s="3"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -3734,7 +4641,9 @@
       <c r="D131">
         <v>564</v>
       </c>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>377</v>
+      </c>
       <c r="F131" s="3"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -3754,7 +4663,9 @@
       <c r="D132">
         <v>565</v>
       </c>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>378</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -3774,7 +4685,9 @@
       <c r="D133">
         <v>566</v>
       </c>
-      <c r="E133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>379</v>
+      </c>
       <c r="F133" s="3"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -3794,7 +4707,9 @@
       <c r="D134">
         <v>567</v>
       </c>
-      <c r="E134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>380</v>
+      </c>
       <c r="F134" s="3"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -3814,7 +4729,9 @@
       <c r="D135">
         <v>568</v>
       </c>
-      <c r="E135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>381</v>
+      </c>
       <c r="F135" s="3"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -3834,7 +4751,9 @@
       <c r="D136">
         <v>569</v>
       </c>
-      <c r="E136" s="5"/>
+      <c r="E136" s="5" t="s">
+        <v>382</v>
+      </c>
       <c r="F136" s="3"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -3856,7 +4775,9 @@
       <c r="D137">
         <v>570</v>
       </c>
-      <c r="E137" s="5"/>
+      <c r="E137" s="5" t="s">
+        <v>383</v>
+      </c>
       <c r="F137" s="3"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -3878,7 +4799,9 @@
       <c r="D138">
         <v>571</v>
       </c>
-      <c r="E138" s="5"/>
+      <c r="E138" s="5" t="s">
+        <v>384</v>
+      </c>
       <c r="F138" s="3"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -3900,7 +4823,9 @@
       <c r="D139">
         <v>572</v>
       </c>
-      <c r="E139" s="5"/>
+      <c r="E139" s="5" t="s">
+        <v>385</v>
+      </c>
       <c r="F139" s="3"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -3920,7 +4845,9 @@
       <c r="D140">
         <v>573</v>
       </c>
-      <c r="E140" s="5"/>
+      <c r="E140" s="5" t="s">
+        <v>386</v>
+      </c>
       <c r="F140" s="3"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -3940,7 +4867,9 @@
       <c r="D141">
         <v>574</v>
       </c>
-      <c r="E141" s="5"/>
+      <c r="E141" s="5" t="s">
+        <v>387</v>
+      </c>
       <c r="F141" s="3"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -3960,7 +4889,9 @@
       <c r="D142">
         <v>575</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="5" t="s">
+        <v>388</v>
+      </c>
       <c r="F142" s="3"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -3980,7 +4911,9 @@
       <c r="D143">
         <v>576</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="5" t="s">
+        <v>389</v>
+      </c>
       <c r="F143" s="3"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -4000,7 +4933,9 @@
       <c r="D144">
         <v>577</v>
       </c>
-      <c r="E144" s="5"/>
+      <c r="E144" s="5" t="s">
+        <v>390</v>
+      </c>
       <c r="F144" s="3"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -4020,7 +4955,9 @@
       <c r="D145">
         <v>578</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="5" t="s">
+        <v>391</v>
+      </c>
       <c r="F145" s="3"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -4040,7 +4977,9 @@
       <c r="D146">
         <v>579</v>
       </c>
-      <c r="E146" s="5"/>
+      <c r="E146" s="5" t="s">
+        <v>392</v>
+      </c>
       <c r="F146" s="3"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -4060,7 +4999,9 @@
       <c r="D147">
         <v>580</v>
       </c>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>393</v>
+      </c>
       <c r="F147" s="3"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -4080,7 +5021,9 @@
       <c r="D148">
         <v>581</v>
       </c>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>394</v>
+      </c>
       <c r="F148" s="3"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -4100,7 +5043,9 @@
       <c r="D149">
         <v>582</v>
       </c>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>395</v>
+      </c>
       <c r="F149" s="3"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -4120,7 +5065,9 @@
       <c r="D150">
         <v>583</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>396</v>
+      </c>
       <c r="F150" s="3"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -4140,7 +5087,9 @@
       <c r="D151">
         <v>584</v>
       </c>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>397</v>
+      </c>
       <c r="F151" s="3"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -4160,7 +5109,9 @@
       <c r="D152">
         <v>585</v>
       </c>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>398</v>
+      </c>
       <c r="F152" s="3"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -4180,7 +5131,9 @@
       <c r="D153">
         <v>586</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>399</v>
+      </c>
       <c r="F153" s="3"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -4200,7 +5153,9 @@
       <c r="D154">
         <v>587</v>
       </c>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>400</v>
+      </c>
       <c r="F154" s="3"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -4220,7 +5175,9 @@
       <c r="D155">
         <v>588</v>
       </c>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>401</v>
+      </c>
       <c r="F155" s="3"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -4240,7 +5197,9 @@
       <c r="D156">
         <v>589</v>
       </c>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>402</v>
+      </c>
       <c r="F156" s="3"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -4260,7 +5219,9 @@
       <c r="D157">
         <v>590</v>
       </c>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>403</v>
+      </c>
       <c r="F157" s="3"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -4280,7 +5241,9 @@
       <c r="D158">
         <v>591</v>
       </c>
-      <c r="E158" s="5"/>
+      <c r="E158" s="5" t="s">
+        <v>404</v>
+      </c>
       <c r="F158" s="3"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -4300,7 +5263,9 @@
       <c r="D159">
         <v>592</v>
       </c>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>405</v>
+      </c>
       <c r="F159" s="3"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -4320,7 +5285,9 @@
       <c r="D160">
         <v>593</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="5" t="s">
+        <v>406</v>
+      </c>
       <c r="F160" s="3"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -4340,7 +5307,9 @@
       <c r="D161">
         <v>594</v>
       </c>
-      <c r="E161" s="5"/>
+      <c r="E161" s="5" t="s">
+        <v>407</v>
+      </c>
       <c r="F161" s="3"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -4360,7 +5329,9 @@
       <c r="D162">
         <v>595</v>
       </c>
-      <c r="E162" s="5"/>
+      <c r="E162" s="5" t="s">
+        <v>408</v>
+      </c>
       <c r="F162" s="3"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -4380,7 +5351,9 @@
       <c r="D163">
         <v>596</v>
       </c>
-      <c r="E163" s="5"/>
+      <c r="E163" s="5" t="s">
+        <v>409</v>
+      </c>
       <c r="F163" s="3"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -4400,7 +5373,9 @@
       <c r="D164">
         <v>597</v>
       </c>
-      <c r="E164" s="5"/>
+      <c r="E164" s="5" t="s">
+        <v>410</v>
+      </c>
       <c r="F164" s="3"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -4420,7 +5395,9 @@
       <c r="D165">
         <v>598</v>
       </c>
-      <c r="E165" s="5"/>
+      <c r="E165" s="5" t="s">
+        <v>411</v>
+      </c>
       <c r="F165" s="3"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -4440,7 +5417,9 @@
       <c r="D166">
         <v>599</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="5" t="s">
+        <v>412</v>
+      </c>
       <c r="F166" s="3"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -4460,7 +5439,9 @@
       <c r="D167">
         <v>600</v>
       </c>
-      <c r="E167" s="5"/>
+      <c r="E167" s="5" t="s">
+        <v>413</v>
+      </c>
       <c r="F167" s="3"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -4480,7 +5461,9 @@
       <c r="D168">
         <v>601</v>
       </c>
-      <c r="E168" s="5"/>
+      <c r="E168" s="5" t="s">
+        <v>414</v>
+      </c>
       <c r="F168" s="3"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -4500,7 +5483,9 @@
       <c r="D169">
         <v>602</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="5" t="s">
+        <v>415</v>
+      </c>
       <c r="F169" s="3"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -4520,7 +5505,9 @@
       <c r="D170">
         <v>603</v>
       </c>
-      <c r="E170" s="5"/>
+      <c r="E170" s="5" t="s">
+        <v>416</v>
+      </c>
       <c r="F170" s="3"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -4540,7 +5527,9 @@
       <c r="D171">
         <v>604</v>
       </c>
-      <c r="E171" s="5"/>
+      <c r="E171" s="5" t="s">
+        <v>417</v>
+      </c>
       <c r="F171" s="3"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -4560,7 +5549,9 @@
       <c r="D172">
         <v>605</v>
       </c>
-      <c r="E172" s="5"/>
+      <c r="E172" s="5" t="s">
+        <v>418</v>
+      </c>
       <c r="F172" s="3"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -4580,7 +5571,9 @@
       <c r="D173">
         <v>606</v>
       </c>
-      <c r="E173" s="5"/>
+      <c r="E173" s="5" t="s">
+        <v>419</v>
+      </c>
       <c r="F173" s="3"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -4600,7 +5593,9 @@
       <c r="D174">
         <v>607</v>
       </c>
-      <c r="E174" s="5"/>
+      <c r="E174" s="5" t="s">
+        <v>420</v>
+      </c>
       <c r="F174" s="3"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -4620,7 +5615,9 @@
       <c r="D175">
         <v>608</v>
       </c>
-      <c r="E175" s="5"/>
+      <c r="E175" s="5" t="s">
+        <v>421</v>
+      </c>
       <c r="F175" s="3"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -4640,7 +5637,9 @@
       <c r="D176">
         <v>609</v>
       </c>
-      <c r="E176" s="5"/>
+      <c r="E176" s="5" t="s">
+        <v>422</v>
+      </c>
       <c r="F176" s="3"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -4660,7 +5659,9 @@
       <c r="D177">
         <v>610</v>
       </c>
-      <c r="E177" s="5"/>
+      <c r="E177" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="F177" s="3"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -4680,7 +5681,9 @@
       <c r="D178">
         <v>611</v>
       </c>
-      <c r="E178" s="5"/>
+      <c r="E178" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="F178" s="3"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -4702,7 +5705,9 @@
       <c r="D179">
         <v>612</v>
       </c>
-      <c r="E179" s="5"/>
+      <c r="E179" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="F179" s="3"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -4722,7 +5727,9 @@
       <c r="D180">
         <v>613</v>
       </c>
-      <c r="E180" s="5"/>
+      <c r="E180" s="5" t="s">
+        <v>426</v>
+      </c>
       <c r="F180" s="3"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -4742,7 +5749,9 @@
       <c r="D181">
         <v>614</v>
       </c>
-      <c r="E181" s="5"/>
+      <c r="E181" s="5" t="s">
+        <v>427</v>
+      </c>
       <c r="F181" s="3"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -4764,7 +5773,9 @@
       <c r="D182">
         <v>615</v>
       </c>
-      <c r="E182" s="5"/>
+      <c r="E182" s="5" t="s">
+        <v>428</v>
+      </c>
       <c r="F182" s="3"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -4784,7 +5795,9 @@
       <c r="D183">
         <v>616</v>
       </c>
-      <c r="E183" s="5"/>
+      <c r="E183" s="5" t="s">
+        <v>429</v>
+      </c>
       <c r="F183" s="3"/>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -4804,7 +5817,9 @@
       <c r="D184">
         <v>617</v>
       </c>
-      <c r="E184" s="5"/>
+      <c r="E184" s="5" t="s">
+        <v>430</v>
+      </c>
       <c r="F184" s="3"/>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -4824,7 +5839,9 @@
       <c r="D185">
         <v>618</v>
       </c>
-      <c r="E185" s="5"/>
+      <c r="E185" s="5" t="s">
+        <v>431</v>
+      </c>
       <c r="F185" s="3"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -4884,7 +5901,9 @@
       <c r="D188">
         <v>619</v>
       </c>
-      <c r="E188" s="5"/>
+      <c r="E188" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="F188" s="3"/>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -4904,7 +5923,9 @@
       <c r="D189">
         <v>620</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="5" t="s">
+        <v>433</v>
+      </c>
       <c r="F189" s="3"/>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -4924,7 +5945,9 @@
       <c r="D190">
         <v>621</v>
       </c>
-      <c r="E190" s="5"/>
+      <c r="E190" s="5" t="s">
+        <v>434</v>
+      </c>
       <c r="F190" s="3"/>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -4946,7 +5969,9 @@
       <c r="D191">
         <v>622</v>
       </c>
-      <c r="E191" s="5"/>
+      <c r="E191" s="5" t="s">
+        <v>435</v>
+      </c>
       <c r="F191" s="3"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -4966,7 +5991,9 @@
       <c r="D192">
         <v>623</v>
       </c>
-      <c r="E192" s="5"/>
+      <c r="E192" s="5" t="s">
+        <v>436</v>
+      </c>
       <c r="F192" s="3"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -4986,7 +6013,9 @@
       <c r="D193">
         <v>624</v>
       </c>
-      <c r="E193" s="5"/>
+      <c r="E193" s="5" t="s">
+        <v>437</v>
+      </c>
       <c r="F193" s="3"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -5008,7 +6037,9 @@
       <c r="D194">
         <v>625</v>
       </c>
-      <c r="E194" s="5"/>
+      <c r="E194" s="5" t="s">
+        <v>438</v>
+      </c>
       <c r="F194" s="3"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
@@ -5030,7 +6061,9 @@
       <c r="D195">
         <v>626</v>
       </c>
-      <c r="E195" s="5"/>
+      <c r="E195" s="5" t="s">
+        <v>439</v>
+      </c>
       <c r="F195" s="3"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
@@ -5052,7 +6085,9 @@
       <c r="D196">
         <v>627</v>
       </c>
-      <c r="E196" s="5"/>
+      <c r="E196" s="5" t="s">
+        <v>440</v>
+      </c>
       <c r="F196" s="3"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
@@ -5074,7 +6109,9 @@
       <c r="D197">
         <v>628</v>
       </c>
-      <c r="E197" s="5"/>
+      <c r="E197" s="5" t="s">
+        <v>441</v>
+      </c>
       <c r="F197" s="3"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -5096,7 +6133,9 @@
       <c r="D198">
         <v>629</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="5" t="s">
+        <v>442</v>
+      </c>
       <c r="F198" s="3"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -5116,7 +6155,9 @@
       <c r="D199">
         <v>630</v>
       </c>
-      <c r="E199" s="5"/>
+      <c r="E199" s="5" t="s">
+        <v>443</v>
+      </c>
       <c r="F199" s="3"/>
       <c r="G199" s="11"/>
       <c r="H199" s="11"/>
@@ -5136,7 +6177,9 @@
       <c r="D200">
         <v>631</v>
       </c>
-      <c r="E200" s="5"/>
+      <c r="E200" s="5" t="s">
+        <v>444</v>
+      </c>
       <c r="F200" s="3"/>
       <c r="G200" s="11"/>
       <c r="H200" s="11"/>
@@ -5156,7 +6199,9 @@
       <c r="D201">
         <v>632</v>
       </c>
-      <c r="E201" s="5"/>
+      <c r="E201" s="5" t="s">
+        <v>445</v>
+      </c>
       <c r="F201" s="3"/>
       <c r="G201" s="11"/>
       <c r="H201" s="11"/>
@@ -5176,7 +6221,9 @@
       <c r="D202">
         <v>633</v>
       </c>
-      <c r="E202" s="5"/>
+      <c r="E202" s="5" t="s">
+        <v>446</v>
+      </c>
       <c r="F202" s="3"/>
       <c r="G202" s="11"/>
       <c r="H202" s="11"/>
@@ -5196,7 +6243,9 @@
       <c r="D203">
         <v>634</v>
       </c>
-      <c r="E203" s="5"/>
+      <c r="E203" s="5" t="s">
+        <v>447</v>
+      </c>
       <c r="F203" s="3"/>
       <c r="G203" s="11"/>
       <c r="H203" s="11"/>
@@ -5216,7 +6265,9 @@
       <c r="D204">
         <v>635</v>
       </c>
-      <c r="E204" s="5"/>
+      <c r="E204" s="5" t="s">
+        <v>448</v>
+      </c>
       <c r="F204" s="3"/>
       <c r="G204" s="11"/>
       <c r="H204" s="11"/>
@@ -5236,7 +6287,9 @@
       <c r="D205">
         <v>636</v>
       </c>
-      <c r="E205" s="5"/>
+      <c r="E205" s="5" t="s">
+        <v>449</v>
+      </c>
       <c r="F205" s="3"/>
       <c r="G205" s="11"/>
       <c r="H205" s="11"/>
@@ -5255,6 +6308,9 @@
       <c r="D206">
         <v>637</v>
       </c>
+      <c r="E206" s="5" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B207" s="3" t="s">
@@ -5266,6 +6322,9 @@
       <c r="D207">
         <v>638</v>
       </c>
+      <c r="E207" s="5" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B208" s="3" t="s">
@@ -5277,6 +6336,9 @@
       <c r="D208">
         <v>639</v>
       </c>
+      <c r="E208" s="5" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="209" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B209" s="3" t="s">
@@ -5288,6 +6350,9 @@
       <c r="D209">
         <v>640</v>
       </c>
+      <c r="E209" s="5" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="210" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B210" s="3" t="s">
@@ -5299,6 +6364,9 @@
       <c r="D210">
         <v>641</v>
       </c>
+      <c r="E210" s="5" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="211" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B211" s="3" t="s">
@@ -5310,6 +6378,9 @@
       <c r="D211">
         <v>642</v>
       </c>
+      <c r="E211" s="5" t="s">
+        <v>455</v>
+      </c>
     </row>
     <row r="212" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B212" s="3" t="s">
@@ -5321,6 +6392,9 @@
       <c r="D212">
         <v>643</v>
       </c>
+      <c r="E212" s="5" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="213" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B213" s="3" t="s">
@@ -5332,6 +6406,9 @@
       <c r="D213">
         <v>644</v>
       </c>
+      <c r="E213" s="5" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="214" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B214" s="3" t="s">
@@ -5343,6 +6420,9 @@
       <c r="D214">
         <v>645</v>
       </c>
+      <c r="E214" s="5" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="215" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B215" s="3" t="s">
@@ -5354,6 +6434,9 @@
       <c r="D215">
         <v>646</v>
       </c>
+      <c r="E215" s="5" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="216" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B216" s="3" t="s">
@@ -5365,6 +6448,9 @@
       <c r="D216">
         <v>647</v>
       </c>
+      <c r="E216" s="5" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="217" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B217" s="3" t="s">
@@ -5376,6 +6462,9 @@
       <c r="D217">
         <v>648</v>
       </c>
+      <c r="E217" s="5" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="218" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B218" s="3" t="s">
@@ -5387,6 +6476,9 @@
       <c r="D218">
         <v>649</v>
       </c>
+      <c r="E218" s="5" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="219" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B219" s="3" t="s">
@@ -5398,6 +6490,9 @@
       <c r="D219">
         <v>650</v>
       </c>
+      <c r="E219" s="5" t="s">
+        <v>463</v>
+      </c>
       <c r="L219" t="s">
         <v>258</v>
       </c>
@@ -5412,6 +6507,9 @@
       <c r="D220">
         <v>651</v>
       </c>
+      <c r="E220" s="5" t="s">
+        <v>464</v>
+      </c>
       <c r="L220" t="s">
         <v>258</v>
       </c>
@@ -5426,6 +6524,9 @@
       <c r="D221">
         <v>652</v>
       </c>
+      <c r="E221" s="5" t="s">
+        <v>465</v>
+      </c>
       <c r="L221" t="s">
         <v>258</v>
       </c>
@@ -5440,6 +6541,9 @@
       <c r="D222">
         <v>653</v>
       </c>
+      <c r="E222" s="5" t="s">
+        <v>466</v>
+      </c>
       <c r="L222" t="s">
         <v>258</v>
       </c>
@@ -5454,6 +6558,9 @@
       <c r="D223">
         <v>654</v>
       </c>
+      <c r="E223" s="5" t="s">
+        <v>467</v>
+      </c>
       <c r="L223" t="s">
         <v>258</v>
       </c>
@@ -5468,6 +6575,9 @@
       <c r="D224">
         <v>655</v>
       </c>
+      <c r="E224" s="5" t="s">
+        <v>468</v>
+      </c>
       <c r="L224" t="s">
         <v>258</v>
       </c>
@@ -5482,6 +6592,9 @@
       <c r="D225">
         <v>656</v>
       </c>
+      <c r="E225" s="5" t="s">
+        <v>469</v>
+      </c>
       <c r="L225" t="s">
         <v>258</v>
       </c>
@@ -5496,6 +6609,9 @@
       <c r="D226">
         <v>657</v>
       </c>
+      <c r="E226" s="5" t="s">
+        <v>470</v>
+      </c>
       <c r="L226" t="s">
         <v>258</v>
       </c>
@@ -5510,6 +6626,9 @@
       <c r="D227">
         <v>658</v>
       </c>
+      <c r="E227" s="5" t="s">
+        <v>471</v>
+      </c>
       <c r="L227" t="s">
         <v>258</v>
       </c>
@@ -5524,6 +6643,9 @@
       <c r="D228">
         <v>659</v>
       </c>
+      <c r="E228" s="5" t="s">
+        <v>472</v>
+      </c>
       <c r="L228" t="s">
         <v>258</v>
       </c>
@@ -5538,6 +6660,9 @@
       <c r="D229">
         <v>660</v>
       </c>
+      <c r="E229" s="5" t="s">
+        <v>473</v>
+      </c>
       <c r="L229" t="s">
         <v>258</v>
       </c>
@@ -5552,6 +6677,9 @@
       <c r="D230">
         <v>661</v>
       </c>
+      <c r="E230" s="5" t="s">
+        <v>474</v>
+      </c>
       <c r="L230" t="s">
         <v>258</v>
       </c>
@@ -5566,6 +6694,9 @@
       <c r="D231">
         <v>662</v>
       </c>
+      <c r="E231" s="5" t="s">
+        <v>475</v>
+      </c>
     </row>
     <row r="232" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B232" s="3" t="s">
@@ -5577,6 +6708,9 @@
       <c r="D232">
         <v>663</v>
       </c>
+      <c r="E232" s="5" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="233" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B233" s="3" t="s">
@@ -5588,6 +6722,9 @@
       <c r="D233">
         <v>664</v>
       </c>
+      <c r="E233" s="5" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="234" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B234" s="3" t="s">
@@ -5599,6 +6736,9 @@
       <c r="D234">
         <v>665</v>
       </c>
+      <c r="E234" s="5" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="235" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B235" s="3" t="s">
@@ -5610,6 +6750,9 @@
       <c r="D235">
         <v>666</v>
       </c>
+      <c r="E235" s="5" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="236" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B236" s="3" t="s">
@@ -5621,6 +6764,9 @@
       <c r="D236">
         <v>667</v>
       </c>
+      <c r="E236" s="5" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="237" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B237" s="3" t="s">
@@ -5632,6 +6778,9 @@
       <c r="D237">
         <v>668</v>
       </c>
+      <c r="E237" s="5" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="238" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B238" s="3" t="s">
@@ -5643,6 +6792,9 @@
       <c r="D238">
         <v>669</v>
       </c>
+      <c r="E238" s="5" t="s">
+        <v>482</v>
+      </c>
     </row>
     <row r="239" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B239" s="3" t="s">
@@ -5654,6 +6806,9 @@
       <c r="D239">
         <v>670</v>
       </c>
+      <c r="E239" s="5" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="240" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B240" s="3" t="s">
@@ -5665,8 +6820,11 @@
       <c r="D240">
         <v>671</v>
       </c>
-    </row>
-    <row r="241" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="3" t="s">
         <v>253</v>
       </c>
@@ -5676,8 +6834,11 @@
       <c r="D241">
         <v>672</v>
       </c>
-    </row>
-    <row r="242" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="5" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B242" s="3" t="s">
         <v>254</v>
       </c>
@@ -5687,8 +6848,11 @@
       <c r="D242">
         <v>673</v>
       </c>
-    </row>
-    <row r="243" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B243" s="3" t="s">
         <v>255</v>
       </c>
@@ -5698,8 +6862,11 @@
       <c r="D243">
         <v>674</v>
       </c>
-    </row>
-    <row r="244" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="3" t="s">
         <v>256</v>
       </c>
@@ -5708,6 +6875,9 @@
       </c>
       <c r="D244">
         <v>675</v>
+      </c>
+      <c r="E244" s="5" t="s">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
